--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A4CCC-4F5B-4C4D-8AF8-71AEEF3CD0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,42 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Zixian Lin</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +82,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +372,702 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B3" s="3"/>
+    </row>
+    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>45166</v>
+      </c>
+      <c r="B5" s="3"/>
+    </row>
+    <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>45167</v>
+      </c>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>45168</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>45169</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>45170</v>
+      </c>
+      <c r="B9" s="3"/>
+    </row>
+    <row r="10" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>45172</v>
+      </c>
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>45173</v>
+      </c>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>45174</v>
+      </c>
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>45175</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>45176</v>
+      </c>
+      <c r="B15" s="3"/>
+    </row>
+    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>45177</v>
+      </c>
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>45178</v>
+      </c>
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>45179</v>
+      </c>
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>45180</v>
+      </c>
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>45181</v>
+      </c>
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>45182</v>
+      </c>
+      <c r="B21" s="3"/>
+    </row>
+    <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>45183</v>
+      </c>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>45184</v>
+      </c>
+      <c r="B23" s="3"/>
+    </row>
+    <row r="24" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>45185</v>
+      </c>
+      <c r="B24" s="3"/>
+    </row>
+    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>45186</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>45187</v>
+      </c>
+      <c r="B26" s="3"/>
+    </row>
+    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>45188</v>
+      </c>
+      <c r="B27" s="3"/>
+    </row>
+    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>45189</v>
+      </c>
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>45190</v>
+      </c>
+      <c r="B29" s="3"/>
+    </row>
+    <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>45191</v>
+      </c>
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>45192</v>
+      </c>
+      <c r="B31" s="3"/>
+    </row>
+    <row r="32" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>45193</v>
+      </c>
+      <c r="B32" s="3"/>
+    </row>
+    <row r="33" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>45194</v>
+      </c>
+      <c r="B33" s="3"/>
+    </row>
+    <row r="34" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>45195</v>
+      </c>
+      <c r="B34" s="3"/>
+    </row>
+    <row r="35" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>45196</v>
+      </c>
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>45197</v>
+      </c>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>45198</v>
+      </c>
+      <c r="B37" s="3"/>
+    </row>
+    <row r="38" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>45200</v>
+      </c>
+      <c r="B39" s="3"/>
+    </row>
+    <row r="40" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>45201</v>
+      </c>
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B41" s="3"/>
+    </row>
+    <row r="42" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>45203</v>
+      </c>
+      <c r="B42" s="3"/>
+    </row>
+    <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>45204</v>
+      </c>
+      <c r="B43" s="3"/>
+    </row>
+    <row r="44" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>45205</v>
+      </c>
+      <c r="B44" s="3"/>
+    </row>
+    <row r="45" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>45206</v>
+      </c>
+      <c r="B45" s="3"/>
+    </row>
+    <row r="46" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45207</v>
+      </c>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="47" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>45208</v>
+      </c>
+      <c r="B47" s="3"/>
+    </row>
+    <row r="48" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>45209</v>
+      </c>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="49" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>45210</v>
+      </c>
+      <c r="B49" s="3"/>
+    </row>
+    <row r="50" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>45211</v>
+      </c>
+      <c r="B50" s="3"/>
+    </row>
+    <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>45212</v>
+      </c>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="52" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>45213</v>
+      </c>
+      <c r="B52" s="3"/>
+    </row>
+    <row r="53" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>45214</v>
+      </c>
+      <c r="B53" s="3"/>
+    </row>
+    <row r="54" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>45215</v>
+      </c>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>45216</v>
+      </c>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="56" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="2">
+        <v>45217</v>
+      </c>
+      <c r="B56" s="3"/>
+    </row>
+    <row r="57" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2">
+        <v>45218</v>
+      </c>
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="2">
+        <v>45219</v>
+      </c>
+      <c r="B58" s="3"/>
+    </row>
+    <row r="59" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2">
+        <v>45220</v>
+      </c>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="60" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="2">
+        <v>45221</v>
+      </c>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="61" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2">
+        <v>45222</v>
+      </c>
+      <c r="B61" s="3"/>
+    </row>
+    <row r="62" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="2">
+        <v>45223</v>
+      </c>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2">
+        <v>45224</v>
+      </c>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="64" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="2">
+        <v>45225</v>
+      </c>
+      <c r="B64" s="3"/>
+    </row>
+    <row r="65" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2">
+        <v>45226</v>
+      </c>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="66" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="2">
+        <v>45227</v>
+      </c>
+      <c r="B66" s="3"/>
+    </row>
+    <row r="67" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2">
+        <v>45228</v>
+      </c>
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="2">
+        <v>45229</v>
+      </c>
+      <c r="B68" s="3"/>
+    </row>
+    <row r="69" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2">
+        <v>45230</v>
+      </c>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="71" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2">
+        <v>45232</v>
+      </c>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="72" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2">
+        <v>45234</v>
+      </c>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="74" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="2">
+        <v>45235</v>
+      </c>
+      <c r="B74" s="3"/>
+    </row>
+    <row r="75" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2">
+        <v>45236</v>
+      </c>
+      <c r="B75" s="3"/>
+    </row>
+    <row r="76" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="2">
+        <v>45237</v>
+      </c>
+      <c r="B76" s="3"/>
+    </row>
+    <row r="77" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2">
+        <v>45238</v>
+      </c>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="2">
+        <v>45239</v>
+      </c>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="79" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2">
+        <v>45240</v>
+      </c>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="80" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2">
+        <v>45241</v>
+      </c>
+      <c r="B80" s="3"/>
+    </row>
+    <row r="81" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2">
+        <v>45242</v>
+      </c>
+      <c r="B81" s="3"/>
+    </row>
+    <row r="82" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="2">
+        <v>45243</v>
+      </c>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="83" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2">
+        <v>45244</v>
+      </c>
+      <c r="B83" s="3"/>
+    </row>
+    <row r="84" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="2">
+        <v>45245</v>
+      </c>
+      <c r="B84" s="3"/>
+    </row>
+    <row r="85" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2">
+        <v>45246</v>
+      </c>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="2">
+        <v>45247</v>
+      </c>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="87" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2">
+        <v>45248</v>
+      </c>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="88" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="2">
+        <v>45249</v>
+      </c>
+      <c r="B88" s="3"/>
+    </row>
+    <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2">
+        <v>45250</v>
+      </c>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="90" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="2">
+        <v>45251</v>
+      </c>
+      <c r="B90" s="3"/>
+    </row>
+    <row r="91" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2">
+        <v>45252</v>
+      </c>
+      <c r="B91" s="3"/>
+    </row>
+    <row r="92" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="2">
+        <v>45253</v>
+      </c>
+      <c r="B92" s="3"/>
+    </row>
+    <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="2">
+        <v>45255</v>
+      </c>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="95" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="2">
+        <v>45256</v>
+      </c>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="96" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="2">
+        <v>45257</v>
+      </c>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="97" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="2">
+        <v>45258</v>
+      </c>
+      <c r="B97" s="3"/>
+    </row>
+    <row r="98" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="2">
+        <v>45259</v>
+      </c>
+      <c r="B98" s="3"/>
+    </row>
+    <row r="99" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="2">
+        <v>45260</v>
+      </c>
+      <c r="B99" s="3"/>
+    </row>
+    <row r="100" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B100" s="3"/>
+    </row>
+    <row r="101" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="2">
+        <v>45262</v>
+      </c>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B102" s="3"/>
+    </row>
+    <row r="103" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="2">
+        <v>45264</v>
+      </c>
+      <c r="B103" s="3"/>
+    </row>
+    <row r="104" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="2">
+        <v>45265</v>
+      </c>
+      <c r="B104" s="3"/>
+    </row>
+    <row r="105" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="2">
+        <v>45266</v>
+      </c>
+      <c r="B105" s="3"/>
+    </row>
+    <row r="106" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="2">
+        <v>45267</v>
+      </c>
+      <c r="B106" s="3"/>
+    </row>
+    <row r="107" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="2">
+        <v>45268</v>
+      </c>
+      <c r="B107" s="3"/>
+    </row>
+    <row r="108" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="2">
+        <v>45269</v>
+      </c>
+      <c r="B108" s="3"/>
+    </row>
+    <row r="109" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2">
+        <v>45270</v>
+      </c>
+      <c r="B109" s="3"/>
+    </row>
+    <row r="110" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="2">
+        <v>45271</v>
+      </c>
+      <c r="B110" s="3"/>
+    </row>
+    <row r="111" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="2">
+        <v>45272</v>
+      </c>
+      <c r="B111" s="3"/>
+    </row>
+    <row r="112" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="2">
+        <v>45273</v>
+      </c>
+      <c r="B112" s="3"/>
+    </row>
+    <row r="113" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A113" s="2">
+        <v>45274</v>
+      </c>
+      <c r="B113" s="3"/>
+    </row>
+    <row r="114" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="2">
+        <v>45275</v>
+      </c>
+      <c r="B114" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86A4CCC-4F5B-4C4D-8AF8-71AEEF3CD0A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780CAC8-C9C9-4F28-9AF1-7521B0E313FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,9 +25,76 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Zixian Lin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hours– creating a unity sample project to refresh Unity skill, by watch a simple unity tutorial  </t>
+  </si>
+  <si>
+    <t>6 hours – trying to create a first person charcter movement in 3d and watch tutorial video online</t>
+  </si>
+  <si>
+    <t>3 hours – have a group meeting with our supervisor to talk about the specific detail of the project.
+ 3 hour – playing around with unity probuilder.</t>
+  </si>
+  <si>
+    <t>2 hours writing the design document.</t>
+  </si>
+  <si>
+    <t>2 hour - have a group meeting to talk about the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 hour - watch tutorial on creating multiplayer gaming using FishNet 
+2 hour – try using Fishnet to run a multiplayer for the sample game. The result end up being that you can only run multiplayer on the same computer making it not truly multiplayer
+2 hour – create a sample game for testing multiplayer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour – watching somemore random youtube video on Unity.
+1 hour - watching a tutorial on Photon Fusion. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6 hour-find documentation and  watching youtube video on creating a first person controller in unity </t>
+  </si>
+  <si>
+    <t>1 hour 15 minutes - looking for and adding player character asset and testing</t>
+  </si>
+  <si>
+    <t>7 hour 30 minutes - creating the first playable first personcharacter by adding in basic movement, camera view, animation, and gunscript for basic shooting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 hour - rewatch youtube video on how to use Photon Pun to set up a multiplayer network
+1 hour - testing multiplayer with alda
+5 hour - trying to implement multiplayer feature to the game testing and fixing bug
+  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 hour - watching video on animation rigging in unity </t>
+  </si>
+  <si>
+    <t>1 hour- group meeting about our current progress</t>
+  </si>
+  <si>
+    <t>2 hours- testing new design ideas for player character</t>
+  </si>
+  <si>
+    <t>5 hour - creating a new character design from scratch</t>
+  </si>
+  <si>
+    <t>5 hour -creating a new weapon script and weapon system and adding side project to the repository
+1 hour - have a group meeting on our progress</t>
+  </si>
+  <si>
+    <t>7 hour - creating a weapon switching system and script for multiple new weapon. Testing and creating and adding custom idle, fire, reload and loadout animation for each of them. Also getting them ready for multiplayer</t>
+  </si>
+  <si>
+    <t>3 hour - fixing bug with the gaming and add health and ammo bar for the player character.
+2 hour - learning about RPC for Photon Pun and adding it to the game</t>
+  </si>
+  <si>
+    <t>2 hour -trying to recreate the time log and fixing github problem that is not letting update timelog</t>
   </si>
 </sst>
 </file>
@@ -82,7 +149,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -92,6 +159,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -376,7 +446,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -453,19 +523,25 @@
       <c r="A12" s="2">
         <v>45173</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45174</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45175</v>
       </c>
-      <c r="B14" s="3"/>
+      <c r="B14" s="3" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -477,7 +553,9 @@
       <c r="A16" s="2">
         <v>45177</v>
       </c>
-      <c r="B16" s="3"/>
+      <c r="B16" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -495,25 +573,33 @@
       <c r="A19" s="2">
         <v>45180</v>
       </c>
-      <c r="B19" s="3"/>
+      <c r="B19" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45181</v>
       </c>
-      <c r="B20" s="3"/>
+      <c r="B20" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45182</v>
       </c>
-      <c r="B21" s="3"/>
+      <c r="B21" s="3" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45183</v>
       </c>
-      <c r="B22" s="3"/>
+      <c r="B22" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="23" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
@@ -525,7 +611,9 @@
       <c r="A24" s="2">
         <v>45185</v>
       </c>
-      <c r="B24" s="3"/>
+      <c r="B24" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
@@ -537,31 +625,41 @@
       <c r="A26" s="2">
         <v>45187</v>
       </c>
-      <c r="B26" s="3"/>
+      <c r="B26" s="3" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45188</v>
       </c>
-      <c r="B27" s="3"/>
+      <c r="B27" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45189</v>
       </c>
-      <c r="B28" s="3"/>
+      <c r="B28" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45190</v>
       </c>
-      <c r="B29" s="3"/>
+      <c r="B29" s="3" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45191</v>
       </c>
-      <c r="B30" s="3"/>
+      <c r="B30" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
@@ -579,7 +677,9 @@
       <c r="A33" s="2">
         <v>45194</v>
       </c>
-      <c r="B33" s="3"/>
+      <c r="B33" s="3" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="34" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
@@ -591,19 +691,25 @@
       <c r="A35" s="2">
         <v>45196</v>
       </c>
-      <c r="B35" s="3"/>
+      <c r="B35" s="3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45197</v>
       </c>
-      <c r="B36" s="3"/>
+      <c r="B36" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="37" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45198</v>
       </c>
-      <c r="B37" s="3"/>
+      <c r="B37" s="3" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="38" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
@@ -621,7 +727,9 @@
       <c r="A40" s="2">
         <v>45201</v>
       </c>
-      <c r="B40" s="3"/>
+      <c r="B40" s="3" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="41" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D780CAC8-C9C9-4F28-9AF1-7521B0E313FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F500D31-FD7D-4521-B98A-35746C6FB3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>2 hour -trying to recreate the time log and fixing github problem that is not letting update timelog</t>
+  </si>
+  <si>
+    <t>1 hour - meeting with group member on creating a demo</t>
+  </si>
+  <si>
+    <t>30 minutes - meeting with group member to discuss demo changes</t>
   </si>
 </sst>
 </file>
@@ -445,8 +451,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -715,13 +721,17 @@
       <c r="A38" s="2">
         <v>45199</v>
       </c>
-      <c r="B38" s="3"/>
+      <c r="B38" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="39" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45200</v>
       </c>
-      <c r="B39" s="3"/>
+      <c r="B39" s="3" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="40" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F500D31-FD7D-4521-B98A-35746C6FB3BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4B4F4-40C6-4B26-AD5C-6DA07DD688B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -101,6 +101,10 @@
   </si>
   <si>
     <t>30 minutes - meeting with group member to discuss demo changes</t>
+  </si>
+  <si>
+    <t>3 hour - creating enemey controller for game
+2 hour- doing research on creating enemy controller</t>
   </si>
 </sst>
 </file>
@@ -451,8 +455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -751,7 +755,9 @@
       <c r="A42" s="2">
         <v>45203</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9D4B4F4-40C6-4B26-AD5C-6DA07DD688B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3DC02-699F-4E43-9813-B2B4CB86C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -105,6 +105,10 @@
   <si>
     <t>3 hour - creating enemey controller for game
 2 hour- doing research on creating enemy controller</t>
+  </si>
+  <si>
+    <t>1hour- learning a new shooting system from enemy
+2 hour - trying to implement this system and testing it</t>
   </si>
 </sst>
 </file>
@@ -456,7 +460,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -763,7 +767,9 @@
       <c r="A43" s="2">
         <v>45204</v>
       </c>
-      <c r="B43" s="3"/>
+      <c r="B43" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="44" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E3DC02-699F-4E43-9813-B2B4CB86C9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716071FD-E247-4CFD-9D46-FC02255CAA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -108,6 +108,7 @@
   </si>
   <si>
     <t>1hour- learning a new shooting system from enemy
+1 hour - adding a health bar to the enemy character for player to see and testing
 2 hour - trying to implement this system and testing it</t>
   </si>
 </sst>
@@ -459,8 +460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{716071FD-E247-4CFD-9D46-FC02255CAA52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F6B7D6F-2570-4B33-BA7F-24A4D59A61F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2640" yWindow="2640" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,7 +107,8 @@
 2 hour- doing research on creating enemy controller</t>
   </si>
   <si>
-    <t>1hour- learning a new shooting system from enemy
+    <t>1 hour- learning a new shooting system from enemy
+2 hour - added player health, Fix the bug where enemy health bar will go to zero after oneshot, and test and balance the game.
 1 hour - adding a health bar to the enemy character for player to see and testing
 2 hour - trying to implement this system and testing it</t>
   </si>
@@ -460,81 +461,81 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="60" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45163</v>
       </c>
       <c r="B2" s="3"/>
     </row>
-    <row r="3" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45164</v>
       </c>
       <c r="B3" s="3"/>
     </row>
-    <row r="4" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45165</v>
       </c>
       <c r="B4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45166</v>
       </c>
       <c r="B5" s="3"/>
     </row>
-    <row r="6" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45167</v>
       </c>
       <c r="B6" s="3"/>
     </row>
-    <row r="7" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45168</v>
       </c>
       <c r="B7" s="3"/>
     </row>
-    <row r="8" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45169</v>
       </c>
       <c r="B8" s="3"/>
     </row>
-    <row r="9" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45170</v>
       </c>
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45171</v>
       </c>
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45172</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45173</v>
       </c>
@@ -542,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45174</v>
       </c>
@@ -550,7 +551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45175</v>
       </c>
@@ -558,13 +559,13 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45176</v>
       </c>
       <c r="B15" s="3"/>
     </row>
-    <row r="16" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45177</v>
       </c>
@@ -572,19 +573,19 @@
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45178</v>
       </c>
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45179</v>
       </c>
       <c r="B18" s="3"/>
     </row>
-    <row r="19" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45180</v>
       </c>
@@ -592,7 +593,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45181</v>
       </c>
@@ -600,7 +601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45182</v>
       </c>
@@ -608,7 +609,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45183</v>
       </c>
@@ -616,13 +617,13 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45184</v>
       </c>
       <c r="B23" s="3"/>
     </row>
-    <row r="24" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45185</v>
       </c>
@@ -630,13 +631,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45186</v>
       </c>
       <c r="B25" s="3"/>
     </row>
-    <row r="26" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45187</v>
       </c>
@@ -644,7 +645,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45188</v>
       </c>
@@ -652,7 +653,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45189</v>
       </c>
@@ -660,7 +661,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45190</v>
       </c>
@@ -668,7 +669,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45191</v>
       </c>
@@ -676,19 +677,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45192</v>
       </c>
       <c r="B31" s="3"/>
     </row>
-    <row r="32" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45193</v>
       </c>
       <c r="B32" s="3"/>
     </row>
-    <row r="33" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45194</v>
       </c>
@@ -696,13 +697,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45195</v>
       </c>
       <c r="B34" s="3"/>
     </row>
-    <row r="35" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45196</v>
       </c>
@@ -710,7 +711,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45197</v>
       </c>
@@ -718,7 +719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45198</v>
       </c>
@@ -726,7 +727,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45199</v>
       </c>
@@ -734,7 +735,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45200</v>
       </c>
@@ -742,7 +743,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45201</v>
       </c>
@@ -750,13 +751,13 @@
         <v>19</v>
       </c>
     </row>
-    <row r="41" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45202</v>
       </c>
       <c r="B41" s="3"/>
     </row>
-    <row r="42" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45203</v>
       </c>
@@ -764,7 +765,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45204</v>
       </c>
@@ -772,427 +773,427 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45205</v>
       </c>
       <c r="B44" s="3"/>
     </row>
-    <row r="45" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45206</v>
       </c>
       <c r="B45" s="3"/>
     </row>
-    <row r="46" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45207</v>
       </c>
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45208</v>
       </c>
       <c r="B47" s="3"/>
     </row>
-    <row r="48" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45209</v>
       </c>
       <c r="B48" s="3"/>
     </row>
-    <row r="49" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45210</v>
       </c>
       <c r="B49" s="3"/>
     </row>
-    <row r="50" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45211</v>
       </c>
       <c r="B50" s="3"/>
     </row>
-    <row r="51" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45212</v>
       </c>
       <c r="B51" s="3"/>
     </row>
-    <row r="52" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45213</v>
       </c>
       <c r="B52" s="3"/>
     </row>
-    <row r="53" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45214</v>
       </c>
       <c r="B53" s="3"/>
     </row>
-    <row r="54" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45215</v>
       </c>
       <c r="B54" s="3"/>
     </row>
-    <row r="55" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45216</v>
       </c>
       <c r="B55" s="3"/>
     </row>
-    <row r="56" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45217</v>
       </c>
       <c r="B56" s="3"/>
     </row>
-    <row r="57" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45218</v>
       </c>
       <c r="B57" s="3"/>
     </row>
-    <row r="58" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45219</v>
       </c>
       <c r="B58" s="3"/>
     </row>
-    <row r="59" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45220</v>
       </c>
       <c r="B59" s="3"/>
     </row>
-    <row r="60" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45221</v>
       </c>
       <c r="B60" s="3"/>
     </row>
-    <row r="61" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45222</v>
       </c>
       <c r="B61" s="3"/>
     </row>
-    <row r="62" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45223</v>
       </c>
       <c r="B62" s="3"/>
     </row>
-    <row r="63" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45224</v>
       </c>
       <c r="B63" s="3"/>
     </row>
-    <row r="64" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45225</v>
       </c>
       <c r="B64" s="3"/>
     </row>
-    <row r="65" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45226</v>
       </c>
       <c r="B65" s="3"/>
     </row>
-    <row r="66" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45227</v>
       </c>
       <c r="B66" s="3"/>
     </row>
-    <row r="67" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45228</v>
       </c>
       <c r="B67" s="3"/>
     </row>
-    <row r="68" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45229</v>
       </c>
       <c r="B68" s="3"/>
     </row>
-    <row r="69" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45230</v>
       </c>
       <c r="B69" s="3"/>
     </row>
-    <row r="70" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45231</v>
       </c>
       <c r="B70" s="3"/>
     </row>
-    <row r="71" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45232</v>
       </c>
       <c r="B71" s="3"/>
     </row>
-    <row r="72" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45233</v>
       </c>
       <c r="B72" s="3"/>
     </row>
-    <row r="73" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45234</v>
       </c>
       <c r="B73" s="3"/>
     </row>
-    <row r="74" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45235</v>
       </c>
       <c r="B74" s="3"/>
     </row>
-    <row r="75" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45236</v>
       </c>
       <c r="B75" s="3"/>
     </row>
-    <row r="76" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45237</v>
       </c>
       <c r="B76" s="3"/>
     </row>
-    <row r="77" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45238</v>
       </c>
       <c r="B77" s="3"/>
     </row>
-    <row r="78" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45239</v>
       </c>
       <c r="B78" s="3"/>
     </row>
-    <row r="79" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45240</v>
       </c>
       <c r="B79" s="3"/>
     </row>
-    <row r="80" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45241</v>
       </c>
       <c r="B80" s="3"/>
     </row>
-    <row r="81" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45242</v>
       </c>
       <c r="B81" s="3"/>
     </row>
-    <row r="82" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45243</v>
       </c>
       <c r="B82" s="3"/>
     </row>
-    <row r="83" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45244</v>
       </c>
       <c r="B83" s="3"/>
     </row>
-    <row r="84" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45245</v>
       </c>
       <c r="B84" s="3"/>
     </row>
-    <row r="85" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45246</v>
       </c>
       <c r="B85" s="3"/>
     </row>
-    <row r="86" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45247</v>
       </c>
       <c r="B86" s="3"/>
     </row>
-    <row r="87" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45248</v>
       </c>
       <c r="B87" s="3"/>
     </row>
-    <row r="88" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45249</v>
       </c>
       <c r="B88" s="3"/>
     </row>
-    <row r="89" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45250</v>
       </c>
       <c r="B89" s="3"/>
     </row>
-    <row r="90" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45251</v>
       </c>
       <c r="B90" s="3"/>
     </row>
-    <row r="91" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45252</v>
       </c>
       <c r="B91" s="3"/>
     </row>
-    <row r="92" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45253</v>
       </c>
       <c r="B92" s="3"/>
     </row>
-    <row r="93" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45254</v>
       </c>
       <c r="B93" s="3"/>
     </row>
-    <row r="94" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45255</v>
       </c>
       <c r="B94" s="3"/>
     </row>
-    <row r="95" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45256</v>
       </c>
       <c r="B95" s="3"/>
     </row>
-    <row r="96" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45257</v>
       </c>
       <c r="B96" s="3"/>
     </row>
-    <row r="97" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45258</v>
       </c>
       <c r="B97" s="3"/>
     </row>
-    <row r="98" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45259</v>
       </c>
       <c r="B98" s="3"/>
     </row>
-    <row r="99" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45260</v>
       </c>
       <c r="B99" s="3"/>
     </row>
-    <row r="100" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45261</v>
       </c>
       <c r="B100" s="3"/>
     </row>
-    <row r="101" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45262</v>
       </c>
       <c r="B101" s="3"/>
     </row>
-    <row r="102" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45263</v>
       </c>
       <c r="B102" s="3"/>
     </row>
-    <row r="103" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45264</v>
       </c>
       <c r="B103" s="3"/>
     </row>
-    <row r="104" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45265</v>
       </c>
       <c r="B104" s="3"/>
     </row>
-    <row r="105" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45266</v>
       </c>
       <c r="B105" s="3"/>
     </row>
-    <row r="106" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45267</v>
       </c>
       <c r="B106" s="3"/>
     </row>
-    <row r="107" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45268</v>
       </c>
       <c r="B107" s="3"/>
     </row>
-    <row r="108" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45269</v>
       </c>
       <c r="B108" s="3"/>
     </row>
-    <row r="109" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45270</v>
       </c>
       <c r="B109" s="3"/>
     </row>
-    <row r="110" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45271</v>
       </c>
       <c r="B110" s="3"/>
     </row>
-    <row r="111" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45272</v>
       </c>
       <c r="B111" s="3"/>
     </row>
-    <row r="112" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45273</v>
       </c>
       <c r="B112" s="3"/>
     </row>
-    <row r="113" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45274</v>
       </c>
       <c r="B113" s="3"/>
     </row>
-    <row r="114" spans="1:2" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45275</v>
       </c>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A4648D9E-0723-44F9-AFD7-0CB2D9D40A65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36306B-BF96-408F-9397-304C2B9FC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -111,6 +111,9 @@
 2 hour - added player health, Fix the bug where enemy health bar will go to zero after oneshot, and test and balance the game.
 1 hour - adding a health bar to the enemy character for player to see and testing
 2 hour - trying to implement this system and testing it</t>
+  </si>
+  <si>
+    <t>2 hour - have group meeting on the progess made and fixing github</t>
   </si>
 </sst>
 </file>
@@ -777,7 +780,9 @@
       <c r="A44" s="2">
         <v>45205</v>
       </c>
-      <c r="B44" s="3"/>
+      <c r="B44" s="3" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="45" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 project\chocohippo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A36306B-BF96-408F-9397-304C2B9FC1D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CFF39-41D6-4DCD-A426-541193120035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>2 hour - have group meeting on the progess made and fixing github</t>
+  </si>
+  <si>
+    <t>3 hour - adding animation to the enemy character and fixing up the code so that there would be a idle state</t>
   </si>
 </sst>
 </file>
@@ -464,8 +467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -812,7 +815,9 @@
       <c r="A49" s="2">
         <v>45210</v>
       </c>
-      <c r="B49" s="3"/>
+      <c r="B49" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="50" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A7CFF39-41D6-4DCD-A426-541193120035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E195C-BEE5-4245-BC3B-2D810C8E1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -113,10 +113,12 @@
 2 hour - trying to implement this system and testing it</t>
   </si>
   <si>
-    <t>2 hour - have group meeting on the progess made and fixing github</t>
-  </si>
-  <si>
-    <t>3 hour - adding animation to the enemy character and fixing up the code so that there would be a idle state</t>
+    <t xml:space="preserve">3 hour - adding animation to the enemy character and fixing up the code so that there would be a idle state
+</t>
+  </si>
+  <si>
+    <t>2 hour - have group meeting on the progess made and fixing github
+1 hour - adding death animation and fixing bug</t>
   </si>
 </sst>
 </file>
@@ -467,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -784,7 +786,7 @@
         <v>45205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -816,7 +818,7 @@
         <v>45210</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{668E195C-BEE5-4245-BC3B-2D810C8E1365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D3C53-5C07-410A-833C-5A20081767F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -114,11 +114,17 @@
   </si>
   <si>
     <t xml:space="preserve">3 hour - adding animation to the enemy character and fixing up the code so that there would be a idle state
+1 hour - adding death animation and fixing bug
 </t>
   </si>
   <si>
-    <t>2 hour - have group meeting on the progess made and fixing github
-1 hour - adding death animation and fixing bug</t>
+    <t>2 hour - trying to figure out Unity NevMesh by watching video and reading document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 hour - have group meeting on the progess made and fixing github
+1 hour - searching for asset for the map
+3 hour - redesigning the map and fixing bug with the map causing the enemy character to go wild.
+</t>
   </si>
 </sst>
 </file>
@@ -470,7 +476,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -786,7 +792,7 @@
         <v>45205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -825,7 +831,9 @@
       <c r="A50" s="2">
         <v>45211</v>
       </c>
-      <c r="B50" s="3"/>
+      <c r="B50" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="51" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E42D3C53-5C07-410A-833C-5A20081767F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695F55F-9EE2-4C82-B06A-D85CB87C2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -113,17 +113,19 @@
 2 hour - trying to implement this system and testing it</t>
   </si>
   <si>
+    <t xml:space="preserve">2 hour - have group meeting on the progess made and fixing github
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">3 hour - adding animation to the enemy character and fixing up the code so that there would be a idle state
 1 hour - adding death animation and fixing bug
 </t>
   </si>
   <si>
-    <t>2 hour - trying to figure out Unity NevMesh by watching video and reading document</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 hour - have group meeting on the progess made and fixing github
-1 hour - searching for asset for the map
-3 hour - redesigning the map and fixing bug with the map causing the enemy character to go wild.
+    <t xml:space="preserve">2 hour (9:19am - 11:20am)  - trying to figure out Unity NevMesh by watching video and reading document
+1 hour(1:20 pm - 2:20pm) - watching random unity tutoral
+1 hour 30 minutes (2:30pm - 4pm)- testing the game, fixing bug cause by the map redesign
+2 hour (11: 21am - 1 :20pm)- searching fo unity asset and redesigning the map
 </t>
   </si>
 </sst>
@@ -475,8 +477,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -792,7 +794,7 @@
         <v>45205</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -824,7 +826,7 @@
         <v>45210</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -832,7 +834,7 @@
         <v>45211</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2695F55F-9EE2-4C82-B06A-D85CB87C2D5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACD944-9757-4BF5-9C2C-22CDD2679DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -127,6 +127,9 @@
 1 hour 30 minutes (2:30pm - 4pm)- testing the game, fixing bug cause by the map redesign
 2 hour (11: 21am - 1 :20pm)- searching fo unity asset and redesigning the map
 </t>
+  </si>
+  <si>
+    <t>3 hour (9 am-12pm) - redesign the loading scene and lobby scene</t>
   </si>
 </sst>
 </file>
@@ -478,7 +481,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B50" sqref="B50"/>
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -841,7 +844,9 @@
       <c r="A51" s="2">
         <v>45212</v>
       </c>
-      <c r="B51" s="3"/>
+      <c r="B51" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="52" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDACD944-9757-4BF5-9C2C-22CDD2679DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC57A6F-6629-4287-A5E3-699B2F14BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,8 @@
 </t>
   </si>
   <si>
-    <t>3 hour (9 am-12pm) - redesign the loading scene and lobby scene</t>
+    <t>3 hour (9 am-12pm) - redesign the loading scene and lobby scene
+1 hour(12pm - 1pm)-fix bug</t>
   </si>
 </sst>
 </file>
@@ -481,7 +482,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFC57A6F-6629-4287-A5E3-699B2F14BFA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AA159-5545-4B74-8C19-AF75C9CE890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,7 +129,7 @@
 </t>
   </si>
   <si>
-    <t>3 hour (9 am-12pm) - redesign the loading scene and lobby scene
+    <t>4 hour (9 am-12pm) (3pm - 4 pm)- redesign the loading scene and lobby scene
 1 hour(12pm - 1pm)-fix bug</t>
   </si>
 </sst>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C6AA159-5545-4B74-8C19-AF75C9CE890F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E48965-B395-4AB3-A12B-CEB576E2F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,7 +130,7 @@
   </si>
   <si>
     <t>4 hour (9 am-12pm) (3pm - 4 pm)- redesign the loading scene and lobby scene
-1 hour(12pm - 1pm)-fix bug</t>
+3 hour(12pm - 1pm)(4pm-6pm)-fix bug</t>
   </si>
 </sst>
 </file>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0E48965-B395-4AB3-A12B-CEB576E2F488}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBDB10D-5983-47BA-A875-067215583F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -130,6 +130,7 @@
   </si>
   <si>
     <t>4 hour (9 am-12pm) (3pm - 4 pm)- redesign the loading scene and lobby scene
+2 hour (8:00pm - 10pm) - group meeting 
 3 hour(12pm - 1pm)(4pm-6pm)-fix bug</t>
   </si>
 </sst>
@@ -481,8 +482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CBDB10D-5983-47BA-A875-067215583F7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64514B8-A790-40E7-B01C-3B648F2DFD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -132,6 +132,9 @@
     <t>4 hour (9 am-12pm) (3pm - 4 pm)- redesign the loading scene and lobby scene
 2 hour (8:00pm - 10pm) - group meeting 
 3 hour(12pm - 1pm)(4pm-6pm)-fix bug</t>
+  </si>
+  <si>
+    <t>2 hour 30 minutes (9:50am - 11:30pm) - group meeting wait to present and bug fix on then game</t>
   </si>
 </sst>
 </file>
@@ -482,8 +485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -866,7 +869,9 @@
       <c r="A54" s="2">
         <v>45215</v>
       </c>
-      <c r="B54" s="3"/>
+      <c r="B54" s="3" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="55" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D64514B8-A790-40E7-B01C-3B648F2DFD01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D543BFB-4823-4AE6-82CD-BF95F76440C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>2 hour 30 minutes (9:50am - 11:30pm) - group meeting wait to present and bug fix on then game</t>
+  </si>
+  <si>
+    <t>1 hour 30 minutes (10 am -11:30am) - meeting for the demo and later on having a meeting with supervisor.</t>
   </si>
 </sst>
 </file>
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -877,7 +880,9 @@
       <c r="A55" s="2">
         <v>45216</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="56" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D543BFB-4823-4AE6-82CD-BF95F76440C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C60BD-6034-41B5-B024-0B8CCB5B5C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
@@ -880,15 +880,15 @@
       <c r="A55" s="2">
         <v>45216</v>
       </c>
-      <c r="B55" s="3" t="s">
-        <v>29</v>
-      </c>
+      <c r="B55" s="3"/>
     </row>
     <row r="56" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45217</v>
       </c>
-      <c r="B56" s="3"/>
+      <c r="B56" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="57" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A5C60BD-6034-41B5-B024-0B8CCB5B5C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29AA57-30A6-41B3-82FD-009DDDCD8098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>1 hour 30 minutes (10 am -11:30am) - meeting for the demo and later on having a meeting with supervisor.</t>
+  </si>
+  <si>
+    <t>3 hour (10am - 1pm) - creating enemy minion character testing it and fixing bug</t>
   </si>
 </sst>
 </file>
@@ -488,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -894,7 +897,9 @@
       <c r="A57" s="2">
         <v>45218</v>
       </c>
-      <c r="B57" s="3"/>
+      <c r="B57" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="58" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E29AA57-30A6-41B3-82FD-009DDDCD8098}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB2B58-D1E9-4A84-9E1C-218FE3BD8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -140,7 +140,8 @@
     <t>1 hour 30 minutes (10 am -11:30am) - meeting for the demo and later on having a meeting with supervisor.</t>
   </si>
   <si>
-    <t>3 hour (10am - 1pm) - creating enemy minion character testing it and fixing bug</t>
+    <t>3 hour (10am - 1pm) - creating enemy minion character testing it and fixing bug
+4 hour (1:30pm- 5-30pm) - implement a new spawning system for the minions and testing and fixing bug that cause the new system to over spawn</t>
   </si>
 </sst>
 </file>
@@ -491,8 +492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABDB2B58-D1E9-4A84-9E1C-218FE3BD8399}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B5D71-707F-4E2F-B535-47DF1599DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -142,6 +142,9 @@
   <si>
     <t>3 hour (10am - 1pm) - creating enemy minion character testing it and fixing bug
 4 hour (1:30pm- 5-30pm) - implement a new spawning system for the minions and testing and fixing bug that cause the new system to over spawn</t>
+  </si>
+  <si>
+    <t>1 hour (7am - 8 am) - fix code and make some quality of life changes to the game</t>
   </si>
 </sst>
 </file>
@@ -492,8 +495,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -906,7 +909,9 @@
       <c r="A58" s="2">
         <v>45219</v>
       </c>
-      <c r="B58" s="3"/>
+      <c r="B58" s="3" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="59" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{574B5D71-707F-4E2F-B535-47DF1599DB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31448FE1-EEA9-4E9E-81BF-04B2E5A0F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -145,6 +145,11 @@
   </si>
   <si>
     <t>1 hour (7am - 8 am) - fix code and make some quality of life changes to the game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1 hour (8am--9am): watching youtube video on unity terrain
+2 hour (9am - 11am): trying to add in self opening door the will open when the boss of the level is defeated and testing it</t>
   </si>
 </sst>
 </file>
@@ -496,7 +501,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -923,7 +928,9 @@
       <c r="A60" s="2">
         <v>45221</v>
       </c>
-      <c r="B60" s="3"/>
+      <c r="B60" s="3" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="61" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31448FE1-EEA9-4E9E-81BF-04B2E5A0F2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C3583E-4284-4E4C-975A-EB23F521BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -150,6 +150,9 @@
     <t xml:space="preserve">
 1 hour (8am--9am): watching youtube video on unity terrain
 2 hour (9am - 11am): trying to add in self opening door the will open when the boss of the level is defeated and testing it</t>
+  </si>
+  <si>
+    <t>1 hour (9pm - 10pm): group meeting</t>
   </si>
 </sst>
 </file>
@@ -500,7 +503,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -936,7 +939,9 @@
       <c r="A61" s="2">
         <v>45222</v>
       </c>
-      <c r="B61" s="3"/>
+      <c r="B61" s="3" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="62" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C3583E-4284-4E4C-975A-EB23F521BF1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7884D46-9831-4472-9E04-1D070124726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -153,6 +153,10 @@
   </si>
   <si>
     <t>1 hour (9pm - 10pm): group meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+3hour (5pm -8pm) work on creating a new map level and write code to transport player into the other level</t>
   </si>
 </sst>
 </file>
@@ -503,8 +507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -953,7 +957,9 @@
       <c r="A63" s="2">
         <v>45224</v>
       </c>
-      <c r="B63" s="3"/>
+      <c r="B63" s="3" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="64" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7884D46-9831-4472-9E04-1D070124726F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4B09B-D1A5-487F-8A74-7CFC83D309D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,7 +155,7 @@
     <t>1 hour (9pm - 10pm): group meeting</t>
   </si>
   <si>
-    <t xml:space="preserve">
+    <t>1 hour (8:30 pm - 9:30pm) - watching random unity tutorial on youtube
 3hour (5pm -8pm) work on creating a new map level and write code to transport player into the other level</t>
   </si>
 </sst>
@@ -508,7 +508,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F4B09B-D1A5-487F-8A74-7CFC83D309D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A0599-B6FE-48A2-A581-0FEF8D472DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -157,6 +157,9 @@
   <si>
     <t>1 hour (8:30 pm - 9:30pm) - watching random unity tutorial on youtube
 3hour (5pm -8pm) work on creating a new map level and write code to transport player into the other level</t>
+  </si>
+  <si>
+    <t>2 hours(10 am - 12 pm) - reading document on changing level for multiplayer and fixing the bug of not being able to see the other player that came in the scene first</t>
   </si>
 </sst>
 </file>
@@ -508,7 +511,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -965,7 +968,9 @@
       <c r="A64" s="2">
         <v>45225</v>
       </c>
-      <c r="B64" s="3"/>
+      <c r="B64" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="65" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB4A0599-B6FE-48A2-A581-0FEF8D472DD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCC46B-26A8-4540-9DE2-C5BEA95DA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -159,7 +159,8 @@
 3hour (5pm -8pm) work on creating a new map level and write code to transport player into the other level</t>
   </si>
   <si>
-    <t>2 hours(10 am - 12 pm) - reading document on changing level for multiplayer and fixing the bug of not being able to see the other player that came in the scene first</t>
+    <t>2 hours(10 am - 12 pm) - reading document on changing level for multiplayer and fixing the bug of not being able to see the other player that came in the scene first
+2 hour (2:30pm - 4:30pm) - setting the second boss animation and fixing bug</t>
   </si>
 </sst>
 </file>
@@ -511,7 +512,7 @@
   <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53DCC46B-26A8-4540-9DE2-C5BEA95DA75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD5D6E-E200-4F8C-970B-7BB5477BBC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -161,6 +161,9 @@
   <si>
     <t>2 hours(10 am - 12 pm) - reading document on changing level for multiplayer and fixing the bug of not being able to see the other player that came in the scene first
 2 hour (2:30pm - 4:30pm) - setting the second boss animation and fixing bug</t>
+  </si>
+  <si>
+    <t>1 hour 45mins (11am - 12:45am) - continue to work on the boss character</t>
   </si>
 </sst>
 </file>
@@ -511,8 +514,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -977,7 +980,9 @@
       <c r="A65" s="2">
         <v>45226</v>
       </c>
-      <c r="B65" s="3"/>
+      <c r="B65" s="3" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="66" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41AD5D6E-E200-4F8C-970B-7BB5477BBC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AC624-1AC6-420D-9A3D-4575FE317F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,7 +163,7 @@
 2 hour (2:30pm - 4:30pm) - setting the second boss animation and fixing bug</t>
   </si>
   <si>
-    <t>1 hour 45mins (11am - 12:45am) - continue to work on the boss character</t>
+    <t>4 hour 45mins (11am - 12:45am)(3:00pm - 6pm) - continue to work on the boss character</t>
   </si>
 </sst>
 </file>

--- a/timelog.xlsx
+++ b/timelog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linst\OneDrive\Desktop\4900 projects\chocohippo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{087AC624-1AC6-420D-9A3D-4575FE317F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{991F653F-BCFD-4954-94BA-18EA56A5113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2985" yWindow="2985" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>Zixian Lin</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>4 hour 45mins (11am - 12:45am)(3:00pm - 6pm) - continue to work on the boss character</t>
+  </si>
+  <si>
+    <t>1 hour (9pm -10pm)- group meeting</t>
   </si>
 </sst>
 </file>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="73.28515625" defaultRowHeight="119.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -994,7 +997,9 @@
       <c r="A67" s="2">
         <v>45228</v>
       </c>
-      <c r="B67" s="3"/>
+      <c r="B67" s="3" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="68" spans="1:2" ht="119.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
